--- a/xlsx/文字_intext.xlsx
+++ b/xlsx/文字_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="393">
   <si>
     <t>文字</t>
   </si>
@@ -29,43 +29,43 @@
     <t>拉丁字母</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_文字</t>
+    <t>政策_政策_维基百科_文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E7%88%BE%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>西里爾字母</t>
+    <t>西里尔字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>希臘字母</t>
+    <t>希腊字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>喬治亞字母</t>
+    <t>乔治亚字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>漢字</t>
+    <t>汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>日語假名</t>
+    <t>日语假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BA%E6%96%87</t>
   </si>
   <si>
-    <t>諺文</t>
+    <t>谚文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%96%87</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E4%BE%86%E6%96%87</t>
   </si>
   <si>
-    <t>希伯來文</t>
+    <t>希伯来文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%8E%9F%E4%BD%8F%E6%B0%91%E9%9F%B3%E7%AF%80%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>加拿大原住民音節文字</t>
+    <t>加拿大原住民音节文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%97%E5%8F%B2</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E6%AF%8D%E7%9A%84%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>字母的歷史</t>
+    <t>字母的历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E9%9F%B3%E6%96%87%E5%AD%97</t>
@@ -149,19 +149,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E9%9F%B3%E7%AF%80%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>半音節文字</t>
+    <t>半音节文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%BE%B5%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>特徵文字</t>
+    <t>特征文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E7%AF%80%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>音節文字</t>
+    <t>音节文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E7%B4%A0%E6%96%87%E5%AD%97</t>
@@ -173,19 +173,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E8%A8%98</t>
   </si>
   <si>
-    <t>速記</t>
+    <t>速记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%99</t>
   </si>
   <si>
-    <t>音標</t>
+    <t>音标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%97</t>
   </si>
   <si>
-    <t>數字</t>
+    <t>数字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B2%E6%96%87</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%84%E5%8A%A0%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>附加符號</t>
+    <t>附加符号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E7%82%B9%E7%AC%A6%E5%8F%B7</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A0%B1</t>
   </si>
   <si>
-    <t>電報</t>
+    <t>电报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E7%AC%A6</t>
@@ -233,25 +233,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%83%8F</t>
   </si>
   <si>
-    <t>圖像</t>
+    <t>图像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>符號</t>
+    <t>符号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E9%9F%B3</t>
   </si>
   <si>
-    <t>語音</t>
+    <t>语音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>中國文字</t>
+    <t>中国文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E9%A6%96</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8E%E7%B4%9A%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>階級社會</t>
+    <t>阶级社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80</t>
@@ -293,13 +293,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%A6%E5%8F%B7</t>
   </si>
   <si>
-    <t>符号</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%A9%97</t>
   </si>
   <si>
-    <t>經驗</t>
+    <t>经验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A%E6%96%87</t>
@@ -341,31 +338,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%9B%85%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>瑪雅文字</t>
+    <t>玛雅文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97</t>
   </si>
   <si>
-    <t>汉字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8%EF%BC%9B%E6%88%96%E8%97%9D%E8%A1%93%E8%88%87%E7%A7%91%E5%AD%B8%E9%80%9A%E7%94%A8%E5%AD%97%E5%85%B8</t>
   </si>
   <si>
-    <t>百科全書；或藝術與科學通用字典</t>
+    <t>百科全书；或艺术与科学通用字典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AB%E4%BD%9C</t>
   </si>
   <si>
-    <t>寫作</t>
+    <t>写作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%B1%E8%AE%80</t>
   </si>
   <si>
-    <t>閱讀</t>
+    <t>阅读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%AD%97%E6%B3%95</t>
@@ -389,25 +383,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AF%AB</t>
   </si>
   <si>
-    <t>大寫</t>
+    <t>大写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AF%AB</t>
   </si>
   <si>
-    <t>小寫</t>
+    <t>小写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%84%E5%8A%A0%E7%AC%A6%E5%8F%B7</t>
   </si>
   <si>
-    <t>附加符号</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%95%B8%E5%AD%97</t>
   </si>
   <si>
-    <t>阿拉伯數字</t>
+    <t>阿拉伯数字</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/allograph</t>
@@ -419,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E4%BD%8D%E7%95%B0%E9%9F%B3</t>
   </si>
   <si>
-    <t>同位異音</t>
+    <t>同位异音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E5%86%99%E4%BD%93</t>
@@ -437,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%9E%E5%AD%97</t>
   </si>
   <si>
-    <t>點字</t>
+    <t>点字</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/conceptual_system</t>
@@ -449,13 +440,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E7%B4%A0</t>
   </si>
   <si>
-    <t>語素</t>
+    <t>语素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E7%AF%80</t>
   </si>
   <si>
-    <t>音節</t>
+    <t>音节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%87%E5%90%8D</t>
@@ -467,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%9B%B8</t>
   </si>
   <si>
-    <t>女書</t>
+    <t>女书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E7%B4%A0</t>
@@ -497,9 +488,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E9%9F%B3%E9%9F%B3%E7%B4%A0%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>輔音音素文字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
@@ -509,19 +497,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E4%BE%86%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>希伯來字母</t>
+    <t>希伯来字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E7%AC%A6%E8%99%9F</t>
   </si>
   <si>
-    <t>注音符號</t>
+    <t>注音符号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9E%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>伊比利亞文字</t>
+    <t>伊比利亚文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%AA%A8%E6%96%87</t>
@@ -533,15 +521,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%9E</t>
   </si>
   <si>
-    <t>詞</t>
+    <t>词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%8A%82</t>
   </si>
   <si>
-    <t>音节</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%8B%8D</t>
   </si>
   <si>
@@ -563,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A%E8%B1%A1%E5%BD%A2%E6%96%87%E5%AD%97</t>
@@ -575,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E5%B8%83%E8%90%8A%E8%91%89</t>
   </si>
   <si>
-    <t>路易斯·布萊葉</t>
+    <t>路易斯·布莱叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E6%96%AF%E7%94%B5%E7%A0%81</t>
@@ -587,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>手語</t>
+    <t>手语</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/manual_alphabet</t>
@@ -599,25 +584,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>旗語</t>
+    <t>旗语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E6%96%87%E5%AD%97%E6%8E%92%E5%88%97%E6%96%B9%E5%90%91</t>
   </si>
   <si>
-    <t>東亞文字排列方向</t>
+    <t>东亚文字排列方向</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%90%91%E6%96%87%E7%A8%BF</t>
   </si>
   <si>
-    <t>雙向文稿</t>
+    <t>双向文稿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E8%80%95%E5%BC%8F%E8%BD%89%E8%A1%8C%E6%9B%B8%E5%AF%AB%E6%B3%95</t>
   </si>
   <si>
-    <t>牛耕式轉行書寫法</t>
+    <t>牛耕式转行书写法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%96%87%E5%AD%97</t>
@@ -629,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E4%BE%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>希伯來語</t>
+    <t>希伯来语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E5%8C%96</t>
@@ -653,19 +638,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%86%E6%99%82%E9%87%9D%E6%96%B9%E5%90%91</t>
   </si>
   <si>
-    <t>順時針方向</t>
+    <t>顺时针方向</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>印度尼西亞</t>
+    <t>印度尼西亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hanun%C3%B3%27o_alphabet</t>
@@ -689,13 +674,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -719,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E5%8C%B9%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索匹亞</t>
+    <t>衣索匹亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -767,19 +752,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B8%9D%E6%B1%B6</t>
   </si>
   <si>
-    <t>東帝汶</t>
+    <t>东帝汶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%8C%B2%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>吉茲字母</t>
+    <t>吉兹字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AC%E5%86%99</t>
@@ -821,15 +803,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E9%9D%9E%E7%B4%8D%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>提非納文字</t>
+    <t>提非纳文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E5%B0%94%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>西里尔字母</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E8%8B%8F%E8%81%94</t>
   </si>
   <si>
@@ -857,31 +836,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
   </si>
   <si>
-    <t>吉爾吉斯</t>
+    <t>吉尔吉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93</t>
   </si>
   <si>
-    <t>馬其頓</t>
+    <t>马其顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
@@ -893,19 +872,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>波士尼亞</t>
+    <t>波士尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%8D%8A%E5%B2%9B</t>
@@ -965,21 +944,15 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B0%9A%E6%96%87</t>
   </si>
   <si>
-    <t>谚文</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E6%BE%B3</t>
   </si>
   <si>
@@ -1001,9 +974,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E8%AF%AD</t>
   </si>
   <si>
@@ -1013,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>喬治亞語</t>
+    <t>乔治亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A%E8%AF%AD</t>
@@ -1037,9 +1007,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%8A%82%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>音节文字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87</t>
   </si>
   <si>
@@ -1085,9 +1052,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E9%9B%85%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>玛雅文字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%9D%E6%96%87</t>
   </si>
   <si>
@@ -1133,27 +1097,24 @@
     <t>https://zh.wikipedia.org/wiki/%E6%82%89%E6%9B%87%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>悉曇文字</t>
+    <t>悉昙文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E7%B1%B3%E7%88%BE%E6%96%87</t>
   </si>
   <si>
-    <t>坦米爾文</t>
+    <t>坦米尔文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%A7%E4%BC%BD%E7%BE%85%E6%96%87</t>
   </si>
   <si>
-    <t>僧伽羅文</t>
+    <t>僧伽罗文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E6%9D%A5%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>希伯来字母</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E6%96%87</t>
   </si>
   <si>
@@ -1163,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>亞美尼亞字母</t>
+    <t>亚美尼亚字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A%E5%AD%97%E6%AF%8D</t>
@@ -1181,13 +1142,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E6%B3%95</t>
   </si>
   <si>
-    <t>書法</t>
+    <t>书法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>語言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%B3%95</t>
@@ -2940,7 +2898,7 @@
         <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G47" t="n">
         <v>6</v>
@@ -2966,10 +2924,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2995,10 +2953,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3024,10 +2982,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>4</v>
@@ -3053,10 +3011,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>11</v>
@@ -3082,10 +3040,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3111,10 +3069,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>10</v>
@@ -3140,10 +3098,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>4</v>
@@ -3169,10 +3127,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3198,10 +3156,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="G56" t="n">
         <v>15</v>
@@ -3314,10 +3272,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3343,10 +3301,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G61" t="n">
         <v>4</v>
@@ -3372,10 +3330,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3401,10 +3359,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3430,10 +3388,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G64" t="n">
         <v>18</v>
@@ -3459,10 +3417,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3488,10 +3446,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3517,10 +3475,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3546,10 +3504,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3575,10 +3533,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3604,10 +3562,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3633,10 +3591,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3662,10 +3620,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3691,10 +3649,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G73" t="n">
         <v>7</v>
@@ -3720,10 +3678,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3749,10 +3707,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3807,10 +3765,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G77" t="n">
         <v>8</v>
@@ -3836,10 +3794,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G78" t="n">
         <v>21</v>
@@ -3865,10 +3823,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G79" t="n">
         <v>6</v>
@@ -3894,10 +3852,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3923,10 +3881,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G81" t="n">
         <v>29</v>
@@ -3981,10 +3939,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F83" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -4010,10 +3968,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4039,10 +3997,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F85" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4068,10 +4026,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="G86" t="n">
         <v>8</v>
@@ -4097,10 +4055,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -4126,10 +4084,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4155,10 +4113,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -4184,10 +4142,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4213,10 +4171,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4242,10 +4200,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G92" t="n">
         <v>4</v>
@@ -4271,10 +4229,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="G93" t="n">
         <v>9</v>
@@ -4300,10 +4258,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F94" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4329,10 +4287,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G95" t="n">
         <v>11</v>
@@ -4358,10 +4316,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G96" t="n">
         <v>15</v>
@@ -4387,10 +4345,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G97" t="n">
         <v>4</v>
@@ -4416,10 +4374,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4445,10 +4403,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>106</v>
+      </c>
+      <c r="F99" t="s">
         <v>107</v>
-      </c>
-      <c r="F99" t="s">
-        <v>108</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4474,10 +4432,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F100" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4503,10 +4461,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4532,10 +4490,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F102" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4561,10 +4519,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4590,10 +4548,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F104" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4619,10 +4577,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F105" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4648,10 +4606,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4677,10 +4635,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4706,10 +4664,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4735,10 +4693,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4764,10 +4722,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4793,10 +4751,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4822,10 +4780,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4851,10 +4809,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F113" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4880,10 +4838,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F114" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4909,10 +4867,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4938,10 +4896,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4967,10 +4925,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4996,10 +4954,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5025,10 +4983,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -5054,10 +5012,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5083,10 +5041,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5112,10 +5070,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5141,10 +5099,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5170,10 +5128,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5199,10 +5157,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5228,10 +5186,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G126" t="n">
         <v>4</v>
@@ -5257,10 +5215,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5286,10 +5244,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5315,10 +5273,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -5344,10 +5302,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F130" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5373,10 +5331,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5402,10 +5360,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5431,10 +5389,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5460,10 +5418,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5489,10 +5447,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5518,10 +5476,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -5547,10 +5505,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5576,10 +5534,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5605,10 +5563,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5634,10 +5592,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5663,10 +5621,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -5692,10 +5650,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>6</v>
       </c>
       <c r="G142" t="n">
         <v>6</v>
@@ -5721,10 +5679,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -5750,10 +5708,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5779,10 +5737,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5808,10 +5766,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5837,10 +5795,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5866,10 +5824,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5895,10 +5853,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5924,10 +5882,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5953,10 +5911,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5982,10 +5940,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6011,10 +5969,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6040,10 +5998,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6069,10 +6027,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6127,10 +6085,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6156,10 +6114,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6185,10 +6143,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6214,10 +6172,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6243,10 +6201,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6272,10 +6230,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6301,10 +6259,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G163" t="n">
         <v>5</v>
@@ -6330,10 +6288,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6359,10 +6317,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6388,10 +6346,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F166" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6417,10 +6375,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6446,10 +6404,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -6475,10 +6433,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="G169" t="n">
         <v>3</v>
@@ -6504,10 +6462,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6533,10 +6491,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6562,10 +6520,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6591,10 +6549,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6620,10 +6578,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6649,10 +6607,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F175" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6678,10 +6636,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6707,10 +6665,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6736,10 +6694,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -6765,10 +6723,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -6794,10 +6752,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>48</v>
       </c>
       <c r="G180" t="n">
         <v>3</v>
@@ -6823,10 +6781,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G181" t="n">
         <v>6</v>
@@ -6852,10 +6810,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6881,10 +6839,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6910,10 +6868,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6939,10 +6897,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6968,10 +6926,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6997,10 +6955,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7026,10 +6984,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>107</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7055,10 +7013,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7113,10 +7071,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F191" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7142,10 +7100,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F192" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7171,10 +7129,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F193" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7200,10 +7158,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F194" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7229,10 +7187,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F195" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7258,10 +7216,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F196" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7287,10 +7245,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F197" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -7316,10 +7274,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F198" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7345,10 +7303,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F199" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7374,10 +7332,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F200" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7403,10 +7361,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="F201" t="s">
-        <v>378</v>
+        <v>160</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7432,10 +7390,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="F202" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7461,10 +7419,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="F203" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -7490,10 +7448,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="F204" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7519,10 +7477,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F205" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7548,10 +7506,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F206" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7577,10 +7535,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F207" t="s">
-        <v>390</v>
+        <v>90</v>
       </c>
       <c r="G207" t="n">
         <v>10</v>
@@ -7606,10 +7564,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F208" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7635,10 +7593,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="F209" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -7664,10 +7622,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="F210" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="G210" t="n">
         <v>6</v>
@@ -7693,10 +7651,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="F211" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7722,10 +7680,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="F212" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7780,10 +7738,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="F214" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -7809,10 +7767,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="F215" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7838,10 +7796,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="F216" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
